--- a/汕大/中国近现代史.xlsx
+++ b/汕大/中国近现代史.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa\汕头大ip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Typora\汕大\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFEBED6-A8B2-460B-8854-8FA1156ED8C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="选择题" sheetId="1" r:id="rId1"/>
-    <sheet name="简答题" sheetId="2" r:id="rId2"/>
+    <sheet name="选择题1" sheetId="1" r:id="rId1"/>
+    <sheet name="简答题1" sheetId="2" r:id="rId2"/>
+    <sheet name="选择题2" sheetId="3" r:id="rId3"/>
+    <sheet name="简答2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,6 +302,358 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8000000" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>456543</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5257143" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361562</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="3104762" cy="3057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466415</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>151996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="0"/>
+          <a:ext cx="2476190" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>637752</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="0"/>
+          <a:ext cx="3380952" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="0"/>
+          <a:ext cx="3657143" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>628334</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17992725" y="0"/>
+          <a:ext cx="2523809" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609095</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="4038095" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123467</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3257550"/>
+          <a:ext cx="2866667" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>36724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11009524" cy="3457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -591,10 +944,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185AA718-1188-4F25-B4D6-909B19FB1D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
